--- a/product_library.xlsx
+++ b/product_library.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\NSANGKARN\bodytaylor\TARSautomation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E069196-B514-4539-B2C0-15C58756149B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99363652-D846-4BB2-ADE7-AE49E407D535}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -8206,8 +8206,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
@@ -8499,10 +8500,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B2652"/>
+  <dimension ref="A1:B2667"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R9" sqref="R9"/>
+    <sheetView tabSelected="1" topLeftCell="A2634" workbookViewId="0">
+      <selection activeCell="A2653" sqref="A2653"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -29726,6 +29727,51 @@
         <v>2708</v>
       </c>
     </row>
+    <row r="2653" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B2653" s="11"/>
+    </row>
+    <row r="2654" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B2654" s="11"/>
+    </row>
+    <row r="2655" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B2655" s="11"/>
+    </row>
+    <row r="2656" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B2656" s="11"/>
+    </row>
+    <row r="2657" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B2657" s="11"/>
+    </row>
+    <row r="2658" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B2658" s="11"/>
+    </row>
+    <row r="2659" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B2659" s="11"/>
+    </row>
+    <row r="2660" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B2660" s="11"/>
+    </row>
+    <row r="2661" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B2661" s="11"/>
+    </row>
+    <row r="2662" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B2662" s="11"/>
+    </row>
+    <row r="2663" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B2663" s="11"/>
+    </row>
+    <row r="2664" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B2664" s="11"/>
+    </row>
+    <row r="2665" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B2665" s="11"/>
+    </row>
+    <row r="2666" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B2666" s="11"/>
+    </row>
+    <row r="2667" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B2667" s="11"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
